--- a/tu vung.xlsx
+++ b/tu vung.xlsx
@@ -2702,7 +2702,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF777777"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2805,7 +2805,7 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3109,8 +3109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80:F101"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>

--- a/tu vung.xlsx
+++ b/tu vung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="165">
   <si>
     <r>
       <t xml:space="preserve">array - </t>
@@ -2591,6 +2591,16 @@
   </si>
   <si>
     <t>nếu không</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马打印机</t>
+  </si>
+  <si>
+    <t>Bānmǎ dǎyìnjī</t>
+  </si>
+  <si>
+    <t>máy in zebra</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3107,10 +3117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
@@ -4116,6 +4126,20 @@
       </c>
       <c r="E64" s="4">
         <v>44023</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="B65" t="s">
+        <v>162</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E65" s="4">
+        <v>44026</v>
       </c>
     </row>
   </sheetData>

--- a/tu vung.xlsx
+++ b/tu vung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="169">
   <si>
     <r>
       <t xml:space="preserve">array - </t>
@@ -2601,6 +2601,20 @@
   </si>
   <si>
     <t>máy in zebra</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>đặt lại/reset</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>尽快处理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jǐnkuài chǔlǐ </t>
+  </si>
+  <si>
+    <t>Giải quyết càng sớm càng tốt</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3117,10 +3131,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
@@ -3128,7 +3142,7 @@
     <col min="1" max="1" width="8.875" style="1"/>
     <col min="2" max="2" width="53.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="48.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.875" style="1"/>
   </cols>
@@ -3834,7 +3848,9 @@
       <c r="C47" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="15"/>
+      <c r="D47" s="15" t="s">
+        <v>165</v>
+      </c>
       <c r="E47" s="13">
         <v>43992</v>
       </c>
@@ -4140,6 +4156,20 @@
       </c>
       <c r="E65" s="4">
         <v>44026</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="B66" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E66" s="4">
+        <v>44037</v>
       </c>
     </row>
   </sheetData>

--- a/tu vung.xlsx
+++ b/tu vung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="184">
   <si>
     <r>
       <t xml:space="preserve">array - </t>
@@ -2615,6 +2615,126 @@
   </si>
   <si>
     <t>Giải quyết càng sớm càng tốt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mật khẩu bị đặt lại</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码被重置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置</t>
+  </si>
+  <si>
+    <r>
+      <t>mìm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ǎ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Inherit"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> bèi chóng zhì</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chóng zhì</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reset</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>không thể kết nối wifi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>无法连接</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>WiFi</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法</t>
+  </si>
+  <si>
+    <r>
+      <t>wúf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ǎ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Inherit"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> liánjiē WiFi</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>wúf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ǎ</t>
+    </r>
+  </si>
+  <si>
+    <t>không có khả năng/không có cách</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接</t>
+  </si>
+  <si>
+    <t>liánjiē</t>
+  </si>
+  <si>
+    <t>kết nối/connect</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2622,7 +2742,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2730,6 +2850,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2784,7 +2917,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2830,6 +2963,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3131,10 +3270,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
@@ -3142,7 +3281,7 @@
     <col min="1" max="1" width="8.875" style="1"/>
     <col min="2" max="2" width="53.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="48.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.875" style="1"/>
   </cols>
@@ -4144,7 +4283,10 @@
         <v>44023</v>
       </c>
     </row>
-    <row r="65" spans="2:5">
+    <row r="65" spans="1:10">
+      <c r="A65" s="5">
+        <v>65</v>
+      </c>
       <c r="B65" t="s">
         <v>162</v>
       </c>
@@ -4157,8 +4299,12 @@
       <c r="E65" s="4">
         <v>44026</v>
       </c>
-    </row>
-    <row r="66" spans="2:5">
+      <c r="J65" s="23"/>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="1">
+        <v>66</v>
+      </c>
       <c r="B66" s="17" t="s">
         <v>166</v>
       </c>
@@ -4171,6 +4317,79 @@
       <c r="E66" s="4">
         <v>44037</v>
       </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="5">
+        <v>67</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E67" s="4">
+        <v>44041</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="B68" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E68" s="4">
+        <v>44041</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="B69" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E69" s="4">
+        <v>44041</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="B70" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="B71" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D71" s="24" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="D73" s="23"/>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="D74" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/tu vung.xlsx
+++ b/tu vung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="196">
   <si>
     <r>
       <t xml:space="preserve">array - </t>
@@ -2735,6 +2735,46 @@
   </si>
   <si>
     <t>kết nối/connect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>传统</t>
+  </si>
+  <si>
+    <t>Chuántǒng</t>
+  </si>
+  <si>
+    <t>truyền thống</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>还剩</t>
+  </si>
+  <si>
+    <t>Hái shèng</t>
+  </si>
+  <si>
+    <t>vẫn còn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交</t>
+  </si>
+  <si>
+    <t>tíjiāo</t>
+  </si>
+  <si>
+    <t>commit code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳定</t>
+  </si>
+  <si>
+    <t>wěndìng</t>
+  </si>
+  <si>
+    <t>ổn định</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2742,7 +2782,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2863,6 +2903,17 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF777777"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2917,7 +2968,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2940,7 +2991,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2969,6 +3019,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3270,15 +3324,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J74"/>
+  <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="1" max="1" width="8.875" style="25"/>
     <col min="2" max="2" width="53.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="48.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.125" style="1" bestFit="1" customWidth="1"/>
@@ -3287,7 +3341,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1">
-      <c r="A1" s="1">
+      <c r="A1" s="25">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -3302,7 +3356,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
-      <c r="A2" s="1">
+      <c r="A2" s="25">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -3317,7 +3371,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="5">
+      <c r="A3" s="25">
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -3332,7 +3386,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="5">
+      <c r="A4" s="25">
         <v>4</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -3347,7 +3401,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1">
-      <c r="A5" s="1">
+      <c r="A5" s="25">
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -3362,7 +3416,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1">
-      <c r="A6" s="1">
+      <c r="A6" s="25">
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -3377,7 +3431,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="5">
+      <c r="A7" s="25">
         <v>7</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -3392,7 +3446,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="5">
+      <c r="A8" s="25">
         <v>8</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -3407,7 +3461,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1">
-      <c r="A9" s="1">
+      <c r="A9" s="25">
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -3422,7 +3476,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="5">
+      <c r="A10" s="25">
         <v>10</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -3437,7 +3491,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="5">
+      <c r="A11" s="25">
         <v>11</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -3452,7 +3506,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="5">
+      <c r="A12" s="25">
         <v>12</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -3467,7 +3521,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="5">
+      <c r="A13" s="25">
         <v>13</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -3482,7 +3536,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1">
-      <c r="A14" s="1">
+      <c r="A14" s="25">
         <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -3497,7 +3551,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1">
-      <c r="A15" s="1">
+      <c r="A15" s="25">
         <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -3512,7 +3566,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A16" s="5">
+      <c r="A16" s="25">
         <v>16</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -3527,7 +3581,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1">
-      <c r="A17" s="1">
+      <c r="A17" s="25">
         <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -3542,7 +3596,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1">
-      <c r="A18" s="1">
+      <c r="A18" s="25">
         <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -3557,7 +3611,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1">
-      <c r="A19" s="1">
+      <c r="A19" s="25">
         <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -3572,7 +3626,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1">
-      <c r="A20" s="1">
+      <c r="A20" s="25">
         <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -3587,7 +3641,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1">
-      <c r="A21" s="1">
+      <c r="A21" s="25">
         <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -3602,7 +3656,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1">
-      <c r="A22" s="1">
+      <c r="A22" s="25">
         <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -3617,7 +3671,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1">
-      <c r="A23" s="1">
+      <c r="A23" s="25">
         <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -3632,7 +3686,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1">
-      <c r="A24" s="1">
+      <c r="A24" s="25">
         <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -3647,7 +3701,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1">
-      <c r="A25" s="1">
+      <c r="A25" s="25">
         <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -3662,7 +3716,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1">
-      <c r="A26" s="1">
+      <c r="A26" s="25">
         <v>26</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -3677,7 +3731,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="5">
+      <c r="A27" s="25">
         <v>27</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -3692,7 +3746,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" customHeight="1">
-      <c r="A28" s="1">
+      <c r="A28" s="25">
         <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -3707,7 +3761,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1">
-      <c r="A29" s="1">
+      <c r="A29" s="25">
         <v>29</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -3722,7 +3776,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A30" s="5">
+      <c r="A30" s="25">
         <v>30</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -3737,7 +3791,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="17.45" customHeight="1">
-      <c r="A31" s="1">
+      <c r="A31" s="25">
         <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -3752,7 +3806,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" customHeight="1">
-      <c r="A32" s="1">
+      <c r="A32" s="25">
         <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -3767,7 +3821,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A33" s="5">
+      <c r="A33" s="25">
         <v>33</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -3782,7 +3836,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A34" s="5">
+      <c r="A34" s="25">
         <v>34</v>
       </c>
       <c r="B34" s="6" t="s">
@@ -3797,7 +3851,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A35" s="5">
+      <c r="A35" s="25">
         <v>35</v>
       </c>
       <c r="B35" s="6" t="s">
@@ -3812,7 +3866,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="5">
+      <c r="A36" s="25">
         <v>36</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -3827,7 +3881,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1">
-      <c r="A37" s="1">
+      <c r="A37" s="25">
         <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -3842,7 +3896,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A38" s="5">
+      <c r="A38" s="25">
         <v>38</v>
       </c>
       <c r="B38" s="6" t="s">
@@ -3857,7 +3911,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1">
-      <c r="A39" s="1">
+      <c r="A39" s="25">
         <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -3872,7 +3926,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1">
-      <c r="A40" s="1">
+      <c r="A40" s="25">
         <v>40</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -3887,7 +3941,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1">
-      <c r="A41" s="1">
+      <c r="A41" s="25">
         <v>41</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -3902,7 +3956,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="5">
+      <c r="A42" s="25">
         <v>42</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -3917,7 +3971,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A43" s="5">
+      <c r="A43" s="25">
         <v>43</v>
       </c>
       <c r="B43" s="6" t="s">
@@ -3932,7 +3986,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A44" s="5">
+      <c r="A44" s="25">
         <v>44</v>
       </c>
       <c r="B44" s="6" t="s">
@@ -3947,7 +4001,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" s="5" customFormat="1">
-      <c r="A45" s="5">
+      <c r="A45" s="25">
         <v>45</v>
       </c>
       <c r="B45" s="6" t="s">
@@ -3961,78 +4015,78 @@
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="10">
+      <c r="A46" s="13">
         <v>46</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C46" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D46" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E46" s="12">
         <v>43992</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="5">
+      <c r="A47" s="25">
         <v>47</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C47" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="15" t="s">
+      <c r="D47" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E47" s="12">
         <v>43992</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="10">
+      <c r="A48" s="13">
         <v>48</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C48" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="D48" s="15" t="s">
+      <c r="D48" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E48" s="12">
         <v>43992</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="5">
+      <c r="A49" s="25">
         <v>49</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D49" s="14" t="s">
+      <c r="D49" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E49" s="12">
         <v>43992</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="10">
+      <c r="A50" s="13">
         <v>50</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="16" t="s">
         <v>123</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -4041,15 +4095,15 @@
       <c r="D50" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E50" s="12">
         <v>43993</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="5">
+      <c r="A51" s="25">
         <v>51</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="16" t="s">
         <v>120</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -4058,15 +4112,15 @@
       <c r="D51" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E51" s="12">
         <v>43993</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="10">
+      <c r="A52" s="13">
         <v>52</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="16" t="s">
         <v>124</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -4075,12 +4129,12 @@
       <c r="D52" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E52" s="13">
+      <c r="E52" s="12">
         <v>43993</v>
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="5">
+      <c r="A53" s="25">
         <v>53</v>
       </c>
       <c r="B53" t="s">
@@ -4092,18 +4146,18 @@
       <c r="D53" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E53" s="13">
+      <c r="E53" s="12">
         <v>43993</v>
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="10">
+      <c r="A54" s="13">
         <v>54</v>
       </c>
-      <c r="B54" s="17" t="s">
+      <c r="B54" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="C54" s="19" t="s">
+      <c r="C54" s="18" t="s">
         <v>131</v>
       </c>
       <c r="D54" s="1" t="s">
@@ -4114,13 +4168,13 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="5">
+      <c r="A55" s="25">
         <v>55</v>
       </c>
-      <c r="B55" s="17" t="s">
+      <c r="B55" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="C55" s="18" t="s">
         <v>134</v>
       </c>
       <c r="D55" s="1" t="s">
@@ -4131,13 +4185,13 @@
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="10">
+      <c r="A56" s="13">
         <v>56</v>
       </c>
-      <c r="B56" s="17" t="s">
+      <c r="B56" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="C56" s="19" t="s">
         <v>137</v>
       </c>
       <c r="D56" s="1" t="s">
@@ -4148,13 +4202,13 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="5">
+      <c r="A57" s="25">
         <v>57</v>
       </c>
-      <c r="B57" s="17" t="s">
+      <c r="B57" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="C57" s="19" t="s">
         <v>140</v>
       </c>
       <c r="D57" s="1" t="s">
@@ -4165,13 +4219,13 @@
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="1">
+      <c r="A58" s="25">
         <v>58</v>
       </c>
-      <c r="B58" s="17" t="s">
+      <c r="B58" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="19" t="s">
         <v>143</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -4182,13 +4236,13 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="10">
+      <c r="A59" s="13">
         <v>59</v>
       </c>
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="C59" s="20" t="s">
+      <c r="C59" s="19" t="s">
         <v>148</v>
       </c>
       <c r="D59" s="1" t="s">
@@ -4199,13 +4253,13 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="5">
+      <c r="A60" s="25">
         <v>60</v>
       </c>
-      <c r="B60" s="17" t="s">
+      <c r="B60" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="C60" s="20" t="s">
+      <c r="C60" s="19" t="s">
         <v>149</v>
       </c>
       <c r="D60" s="1" t="s">
@@ -4216,13 +4270,13 @@
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="10">
+      <c r="A61" s="13">
         <v>61</v>
       </c>
-      <c r="B61" s="17" t="s">
+      <c r="B61" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="C61" s="21" t="s">
+      <c r="C61" s="20" t="s">
         <v>150</v>
       </c>
       <c r="D61" s="1" t="s">
@@ -4233,13 +4287,13 @@
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="5">
+      <c r="A62" s="25">
         <v>62</v>
       </c>
-      <c r="B62" s="17" t="s">
+      <c r="B62" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="C62" s="20" t="s">
+      <c r="C62" s="19" t="s">
         <v>154</v>
       </c>
       <c r="D62" s="1" t="s">
@@ -4250,13 +4304,13 @@
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="5">
+      <c r="A63" s="25">
         <v>63</v>
       </c>
-      <c r="B63" s="17" t="s">
+      <c r="B63" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="C63" s="22" t="s">
+      <c r="C63" s="21" t="s">
         <v>157</v>
       </c>
       <c r="D63" s="1" t="s">
@@ -4267,13 +4321,13 @@
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="1">
+      <c r="A64" s="25">
         <v>64</v>
       </c>
-      <c r="B64" s="17" t="s">
+      <c r="B64" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="C64" s="20" t="s">
+      <c r="C64" s="19" t="s">
         <v>160</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -4284,13 +4338,13 @@
       </c>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="5">
+      <c r="A65" s="25">
         <v>65</v>
       </c>
       <c r="B65" t="s">
         <v>162</v>
       </c>
-      <c r="C65" s="20" t="s">
+      <c r="C65" s="19" t="s">
         <v>163</v>
       </c>
       <c r="D65" s="1" t="s">
@@ -4299,16 +4353,16 @@
       <c r="E65" s="4">
         <v>44026</v>
       </c>
-      <c r="J65" s="23"/>
+      <c r="J65" s="22"/>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="1">
+      <c r="A66" s="25">
         <v>66</v>
       </c>
-      <c r="B66" s="17" t="s">
+      <c r="B66" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="C66" s="20" t="s">
+      <c r="C66" s="19" t="s">
         <v>167</v>
       </c>
       <c r="D66" s="1" t="s">
@@ -4319,13 +4373,13 @@
       </c>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="5">
+      <c r="A67" s="25">
         <v>67</v>
       </c>
-      <c r="B67" s="17" t="s">
+      <c r="B67" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="C67" s="20" t="s">
+      <c r="C67" s="19" t="s">
         <v>172</v>
       </c>
       <c r="D67" s="1" t="s">
@@ -4336,7 +4390,10 @@
       </c>
     </row>
     <row r="68" spans="1:10">
-      <c r="B68" s="17" t="s">
+      <c r="A68" s="25">
+        <v>68</v>
+      </c>
+      <c r="B68" s="16" t="s">
         <v>171</v>
       </c>
       <c r="C68" s="1" t="s">
@@ -4350,10 +4407,13 @@
       </c>
     </row>
     <row r="69" spans="1:10">
-      <c r="B69" s="17" t="s">
+      <c r="A69" s="25">
+        <v>69</v>
+      </c>
+      <c r="B69" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="C69" s="20" t="s">
+      <c r="C69" s="19" t="s">
         <v>178</v>
       </c>
       <c r="D69" s="1" t="s">
@@ -4364,7 +4424,10 @@
       </c>
     </row>
     <row r="70" spans="1:10">
-      <c r="B70" s="17" t="s">
+      <c r="A70" s="25">
+        <v>70</v>
+      </c>
+      <c r="B70" s="16" t="s">
         <v>177</v>
       </c>
       <c r="C70" s="1" t="s">
@@ -4375,21 +4438,86 @@
       </c>
     </row>
     <row r="71" spans="1:10">
-      <c r="B71" s="17" t="s">
+      <c r="A71" s="25">
+        <v>71</v>
+      </c>
+      <c r="B71" s="16" t="s">
         <v>181</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D71" s="24" t="s">
+      <c r="D71" s="23" t="s">
         <v>183</v>
       </c>
     </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="25">
+        <v>72</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="C72" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E72" s="4">
+        <v>44054</v>
+      </c>
+    </row>
     <row r="73" spans="1:10">
-      <c r="D73" s="23"/>
+      <c r="A73" s="25">
+        <v>73</v>
+      </c>
+      <c r="B73" t="s">
+        <v>187</v>
+      </c>
+      <c r="C73" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="D73" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="E73" s="4">
+        <v>44054</v>
+      </c>
     </row>
     <row r="74" spans="1:10">
-      <c r="D74" s="23"/>
+      <c r="A74" s="25">
+        <v>74</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="C74" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="D74" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="E74" s="4">
+        <v>44056</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="25">
+        <v>75</v>
+      </c>
+      <c r="B75" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="C75" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E75" s="4">
+        <v>44056</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4485,13 +4613,13 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="15">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="14" t="s">
         <v>32</v>
       </c>
     </row>

--- a/tu vung.xlsx
+++ b/tu vung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="205">
   <si>
     <r>
       <t xml:space="preserve">array - </t>
@@ -2775,6 +2775,37 @@
   </si>
   <si>
     <t>ổn định</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+  </si>
+  <si>
+    <t>Ànniǔ</t>
+  </si>
+  <si>
+    <t>button</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复选框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fù xuǎn kuāng</t>
+  </si>
+  <si>
+    <t>check box</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认</t>
+  </si>
+  <si>
+    <t>Mòrèn</t>
+  </si>
+  <si>
+    <t>dafault</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3324,10 +3355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J75"/>
+  <dimension ref="A1:J78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
@@ -4517,6 +4548,57 @@
       </c>
       <c r="E75" s="4">
         <v>44056</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="25">
+        <v>76</v>
+      </c>
+      <c r="B76" t="s">
+        <v>196</v>
+      </c>
+      <c r="C76" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E76" s="4">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="25">
+        <v>77</v>
+      </c>
+      <c r="B77" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C77" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E77" s="4">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="25">
+        <v>78</v>
+      </c>
+      <c r="B78" t="s">
+        <v>202</v>
+      </c>
+      <c r="C78" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E78" s="4">
+        <v>44071</v>
       </c>
     </row>
   </sheetData>

--- a/tu vung.xlsx
+++ b/tu vung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="lap_trinh" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="219">
   <si>
     <r>
       <t xml:space="preserve">array - </t>
@@ -198,39 +198,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Lièbiǎo: danh sách</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>出货区域：</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Chū huò qūyù：khu vực xuất hàng</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">栈板类型: </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Zhàn bǎn Lèixíng: loại pallet</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>集货单号列表:</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Jí huò dān hào Lièbiǎo: danh sách shipment</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>补列印:</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bǔ liè yìn: in lại</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2807,6 +2787,235 @@
   <si>
     <t>dafault</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>按照</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ànzhào</t>
+  </si>
+  <si>
+    <t>dựa theo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加</t>
+  </si>
+  <si>
+    <t>Tiānjiā</t>
+  </si>
+  <si>
+    <t>Thêm vào</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分配</t>
+  </si>
+  <si>
+    <t>Fēnpèi</t>
+  </si>
+  <si>
+    <t>phân phối</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>pick</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>站</t>
+    </r>
+  </si>
+  <si>
+    <t>Pick zhàn</t>
+  </si>
+  <si>
+    <t>Trạm pick</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这样就是为了在pick时统一管控</t>
+  </si>
+  <si>
+    <r>
+      <t>Lièbi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>ǎ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>o: danh sách</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Chū huò qūyù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>khu vực xuất hàng</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Zhàn b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>ǎ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>n Lèixíng: loại pallet</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Jí huò dān hào Lièbi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>ǎ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>o: danh sách shipment</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>ǔ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> liè yìn: in lại</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Zhèyàng jiùshì wèile zài pick shí t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>ǒ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ngyī gu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>ǎ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>nkòng</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3355,10 +3564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J78"/>
+  <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
@@ -3376,10 +3585,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="4">
@@ -3391,10 +3600,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="4">
@@ -3409,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="4">
@@ -3421,10 +3630,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="4">
@@ -3436,7 +3645,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>1</v>
@@ -3451,7 +3660,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
@@ -3466,7 +3675,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>3</v>
@@ -3481,10 +3690,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="4">
@@ -3496,7 +3705,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>4</v>
@@ -3511,7 +3720,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>5</v>
@@ -3526,10 +3735,10 @@
         <v>11</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="4">
@@ -3541,7 +3750,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>6</v>
@@ -3556,7 +3765,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>7</v>
@@ -3571,7 +3780,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>8</v>
@@ -3586,7 +3795,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>9</v>
@@ -3601,7 +3810,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>10</v>
@@ -3619,7 +3828,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="4">
@@ -3631,10 +3840,10 @@
         <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="4">
@@ -3649,7 +3858,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="4">
@@ -3661,7 +3870,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>13</v>
@@ -3676,10 +3885,10 @@
         <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="4">
@@ -3691,7 +3900,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>14</v>
@@ -3706,7 +3915,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>15</v>
@@ -3721,7 +3930,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>16</v>
@@ -3736,10 +3945,10 @@
         <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="4">
@@ -3751,10 +3960,10 @@
         <v>26</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="4">
@@ -3766,7 +3975,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>17</v>
@@ -3781,7 +3990,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>18</v>
@@ -3796,7 +4005,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>19</v>
@@ -3811,7 +4020,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>21</v>
@@ -3826,7 +4035,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>20</v>
@@ -3841,7 +4050,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>22</v>
@@ -3856,10 +4065,10 @@
         <v>33</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="4">
@@ -3871,10 +4080,10 @@
         <v>34</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="4">
@@ -3886,7 +4095,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>23</v>
@@ -3901,7 +4110,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>24</v>
@@ -3916,7 +4125,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>25</v>
@@ -3931,7 +4140,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>29</v>
@@ -3946,10 +4155,10 @@
         <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="4">
@@ -3961,10 +4170,10 @@
         <v>40</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="4">
@@ -3976,7 +4185,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>26</v>
@@ -3991,7 +4200,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>27</v>
@@ -4006,10 +4215,10 @@
         <v>43</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="4">
@@ -4021,7 +4230,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>28</v>
@@ -4036,10 +4245,10 @@
         <v>45</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E45" s="4">
         <v>43986</v>
@@ -4050,7 +4259,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>24</v>
@@ -4073,7 +4282,7 @@
         <v>30</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E47" s="12">
         <v>43992</v>
@@ -4084,10 +4293,10 @@
         <v>48</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>32</v>
@@ -4101,13 +4310,13 @@
         <v>49</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E49" s="12">
         <v>43992</v>
@@ -4118,13 +4327,13 @@
         <v>50</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E50" s="12">
         <v>43993</v>
@@ -4135,13 +4344,13 @@
         <v>51</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E51" s="12">
         <v>43993</v>
@@ -4152,13 +4361,13 @@
         <v>52</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E52" s="12">
         <v>43993</v>
@@ -4169,13 +4378,13 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E53" s="12">
         <v>43993</v>
@@ -4186,13 +4395,13 @@
         <v>54</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E54" s="4">
         <v>43994</v>
@@ -4203,13 +4412,13 @@
         <v>55</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E55" s="4">
         <v>44004</v>
@@ -4220,13 +4429,13 @@
         <v>56</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E56" s="4">
         <v>44016</v>
@@ -4237,13 +4446,13 @@
         <v>57</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E57" s="4">
         <v>44016</v>
@@ -4254,13 +4463,13 @@
         <v>58</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E58" s="4">
         <v>44019</v>
@@ -4271,13 +4480,13 @@
         <v>59</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E59" s="4">
         <v>44019</v>
@@ -4288,13 +4497,13 @@
         <v>60</v>
       </c>
       <c r="B60" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="E60" s="4">
         <v>44019</v>
@@ -4305,13 +4514,13 @@
         <v>61</v>
       </c>
       <c r="B61" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="C61" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="E61" s="4">
         <v>44019</v>
@@ -4322,13 +4531,13 @@
         <v>62</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E62" s="4">
         <v>44019</v>
@@ -4339,13 +4548,13 @@
         <v>63</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E63" s="4">
         <v>44022</v>
@@ -4356,13 +4565,13 @@
         <v>64</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E64" s="4">
         <v>44023</v>
@@ -4373,13 +4582,13 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E65" s="4">
         <v>44026</v>
@@ -4391,13 +4600,13 @@
         <v>66</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E66" s="4">
         <v>44037</v>
@@ -4408,13 +4617,13 @@
         <v>67</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E67" s="4">
         <v>44041</v>
@@ -4425,13 +4634,13 @@
         <v>68</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E68" s="4">
         <v>44041</v>
@@ -4442,13 +4651,13 @@
         <v>69</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E69" s="4">
         <v>44041</v>
@@ -4459,13 +4668,13 @@
         <v>70</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -4473,13 +4682,13 @@
         <v>71</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D71" s="23" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -4487,13 +4696,13 @@
         <v>72</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E72" s="4">
         <v>44054</v>
@@ -4504,13 +4713,13 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C73" s="26" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D73" s="22" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E73" s="4">
         <v>44054</v>
@@ -4521,13 +4730,13 @@
         <v>74</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C74" s="26" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D74" s="22" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E74" s="4">
         <v>44056</v>
@@ -4538,13 +4747,13 @@
         <v>75</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C75" s="27" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E75" s="4">
         <v>44056</v>
@@ -4555,13 +4764,13 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C76" s="27" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E76" s="4">
         <v>44071</v>
@@ -4572,13 +4781,13 @@
         <v>77</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C77" s="27" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E77" s="4">
         <v>44071</v>
@@ -4589,16 +4798,78 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C78" s="27" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E78" s="4">
         <v>44071</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="25">
+        <v>79</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C79" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E79" s="4">
+        <v>44081</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="25">
+        <v>80</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C80" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E80" s="4">
+        <v>44082</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5">
+      <c r="B81" t="s">
+        <v>206</v>
+      </c>
+      <c r="C81" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="D81" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="E81" s="4">
+        <v>44082</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5">
+      <c r="B82" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C82" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E82" s="4">
+        <v>44082</v>
       </c>
     </row>
   </sheetData>
@@ -4610,23 +4881,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.125" customWidth="1"/>
-    <col min="2" max="2" width="46.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4634,7 +4905,7 @@
       <c r="A2" t="s">
         <v>36</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4642,7 +4913,7 @@
       <c r="A3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4650,7 +4921,7 @@
       <c r="A4" t="s">
         <v>40</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4658,51 +4929,59 @@
       <c r="A5" t="s">
         <v>42</v>
       </c>
-      <c r="B5" t="s">
-        <v>43</v>
+      <c r="B5" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" t="s">
-        <v>49</v>
+        <v>45</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15">
+        <v>46</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="13" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/tu vung.xlsx
+++ b/tu vung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="lap_trinh" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="223">
   <si>
     <r>
       <t xml:space="preserve">array - </t>
@@ -3016,6 +3016,19 @@
       </rPr>
       <t>nkòng</t>
     </r>
+  </si>
+  <si>
+    <t>批量</t>
+  </si>
+  <si>
+    <t>pīliàng</t>
+  </si>
+  <si>
+    <t>Hàng loạt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blogchiasekienthuc.com/thu-thuat-hay/cach-dong-goi-code-project-thanh-file-exe.html</t>
   </si>
 </sst>
 </file>
@@ -3564,10 +3577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J82"/>
+  <dimension ref="A1:J83"/>
   <sheetViews>
     <sheetView topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
@@ -4872,6 +4885,20 @@
         <v>44082</v>
       </c>
     </row>
+    <row r="83" spans="2:5">
+      <c r="B83" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="C83" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E83" s="4">
+        <v>44095</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4883,7 +4910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -4994,10 +5021,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/tu vung.xlsx
+++ b/tu vung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="lap_trinh" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="226">
   <si>
     <r>
       <t xml:space="preserve">array - </t>
@@ -3029,13 +3029,44 @@
   </si>
   <si>
     <t>https://blogchiasekienthuc.com/thu-thuat-hay/cach-dong-goi-code-project-thanh-file-exe.html</t>
+  </si>
+  <si>
+    <t>拿明朝的剑斩清朝的官</t>
+  </si>
+  <si>
+    <t>Ná míng cháo de jiàn zhǎn qīngcháo de guān</t>
+  </si>
+  <si>
+    <r>
+      <t>Lấy g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m nhà Minh chém các quan lại nhà Thanh</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3166,6 +3197,13 @@
       <color rgb="FF777777"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -4908,10 +4946,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5011,6 +5049,17 @@
         <v>218</v>
       </c>
     </row>
+    <row r="12" spans="1:3" ht="14.25">
+      <c r="A12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" t="s">
+        <v>225</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5021,7 +5070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>

--- a/tu vung.xlsx
+++ b/tu vung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="lap_trinh" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="229">
   <si>
     <r>
       <t xml:space="preserve">array - </t>
@@ -3060,13 +3060,23 @@
       </rPr>
       <t>m nhà Minh chém các quan lại nhà Thanh</t>
     </r>
+  </si>
+  <si>
+    <t>上传</t>
+  </si>
+  <si>
+    <t>Shàngchuán</t>
+  </si>
+  <si>
+    <t>commit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3197,13 +3207,6 @@
       <color rgb="FF777777"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -3615,10 +3618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J83"/>
+  <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
@@ -4937,6 +4940,20 @@
         <v>44095</v>
       </c>
     </row>
+    <row r="84" spans="2:5">
+      <c r="B84" t="s">
+        <v>226</v>
+      </c>
+      <c r="C84" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E84" s="4">
+        <v>44099</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4948,7 +4965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>

--- a/tu vung.xlsx
+++ b/tu vung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="241">
   <si>
     <r>
       <t xml:space="preserve">array - </t>
@@ -3069,6 +3069,49 @@
   </si>
   <si>
     <t>commit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>视图</t>
+  </si>
+  <si>
+    <t>Shìtú</t>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhíjiē</t>
+  </si>
+  <si>
+    <t>Trực tiếp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接覆盖掉原本的视图</t>
+  </si>
+  <si>
+    <t>Zhíjiē fùgài diào yuánběn de shìtú</t>
+  </si>
+  <si>
+    <t>ghi đè trực tiếp vào view gốc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>没听到他们提…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Méi tīng dào tāmen tí…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Không nghe thấy họ nhắc đến…</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3618,10 +3661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J84"/>
+  <dimension ref="A1:J88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
@@ -4897,8 +4940,14 @@
       <c r="E80" s="4">
         <v>44082</v>
       </c>
-    </row>
-    <row r="81" spans="2:5">
+      <c r="G80" s="1">
+        <v>8460</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="25">
+        <v>81</v>
+      </c>
       <c r="B81" t="s">
         <v>206</v>
       </c>
@@ -4911,8 +4960,14 @@
       <c r="E81" s="4">
         <v>44082</v>
       </c>
-    </row>
-    <row r="82" spans="2:5">
+      <c r="G81" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="25">
+        <v>82</v>
+      </c>
       <c r="B82" s="1" t="s">
         <v>209</v>
       </c>
@@ -4925,8 +4980,14 @@
       <c r="E82" s="4">
         <v>44082</v>
       </c>
-    </row>
-    <row r="83" spans="2:5">
+      <c r="G82" s="1">
+        <v>8660</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="25">
+        <v>83</v>
+      </c>
       <c r="B83" s="16" t="s">
         <v>219</v>
       </c>
@@ -4939,8 +5000,14 @@
       <c r="E83" s="4">
         <v>44095</v>
       </c>
-    </row>
-    <row r="84" spans="2:5">
+      <c r="G83" s="1">
+        <v>12180</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="25">
+        <v>84</v>
+      </c>
       <c r="B84" t="s">
         <v>226</v>
       </c>
@@ -4952,6 +5019,86 @@
       </c>
       <c r="E84" s="4">
         <v>44099</v>
+      </c>
+      <c r="G84" s="1">
+        <v>4080</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="25">
+        <v>85</v>
+      </c>
+      <c r="B85" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C85" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E85" s="4">
+        <v>44123</v>
+      </c>
+      <c r="G85" s="1">
+        <v>7680</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="25">
+        <v>86</v>
+      </c>
+      <c r="B86" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="C86" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E86" s="4">
+        <v>44123</v>
+      </c>
+      <c r="G86" s="1">
+        <v>5220</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="25">
+        <v>87</v>
+      </c>
+      <c r="B87" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="C87" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E87" s="4">
+        <v>44123</v>
+      </c>
+      <c r="G87" s="1">
+        <v>6690</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="25">
+        <v>88</v>
+      </c>
+      <c r="B88" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="C88" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E88" s="4">
+        <v>44123</v>
       </c>
     </row>
   </sheetData>

--- a/tu vung.xlsx
+++ b/tu vung.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="lap_trinh" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="成语" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="263">
   <si>
     <r>
       <t xml:space="preserve">array - </t>
@@ -3044,7 +3045,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3054,7 +3055,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3113,17 +3114,83 @@
   <si>
     <t>Không nghe thấy họ nhắc đến…</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>醉翁之意不在酒</t>
+  </si>
+  <si>
+    <t>Zuì wēng zhī yì bùzài jiǔ tiáozhěng</t>
+  </si>
+  <si>
+    <t>say nhưng không phải là say rượu</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>她甩我了</t>
+  </si>
+  <si>
+    <t>Tā shuǎi wǒle</t>
+  </si>
+  <si>
+    <t>Cô ấy đã bỏ rơi tôi</t>
+  </si>
+  <si>
+    <t>多一事不如少一事</t>
+  </si>
+  <si>
+    <t>Duō yīshì bùrú shǎo yīshì</t>
+  </si>
+  <si>
+    <t>nhiều một việc không bằng bớt 1 việc</t>
+  </si>
+  <si>
+    <t>最近根本忙不过来</t>
+  </si>
+  <si>
+    <t>Zuìjìn gēnběn máng bùguò lái</t>
+  </si>
+  <si>
+    <t>gần đây căn bản là rất bận</t>
+  </si>
+  <si>
+    <t>多一事不如少一事， 要不你根本忙不过来</t>
+  </si>
+  <si>
+    <t>Nhiều một việc không bằng bớt 1 việc, nếu không căn bản là rất bân</t>
+  </si>
+  <si>
+    <t>Duō yīshì bùrú shǎo yīshì, yào bù nǐ gēnběn máng bùguò lái</t>
+  </si>
+  <si>
+    <t>蛇皮怪</t>
+  </si>
+  <si>
+    <t>Shé pí guài</t>
+  </si>
+  <si>
+    <t>Miêu tả 1 người nghịch ngợm</t>
+  </si>
+  <si>
+    <t>供应商</t>
+  </si>
+  <si>
+    <t>Gōngyìng shāng</t>
+  </si>
+  <si>
+    <t>Nhà cung ứng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3135,7 +3202,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3251,6 +3318,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF5F6368"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -3305,7 +3378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3360,6 +3433,7 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3369,6 +3443,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3417,7 +3494,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3452,7 +3529,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3661,20 +3738,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J88"/>
+  <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="25"/>
-    <col min="2" max="2" width="53.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="48.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.875" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="25"/>
+    <col min="2" max="2" width="53.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="48.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1">
@@ -5099,6 +5176,34 @@
       </c>
       <c r="E88" s="4">
         <v>44123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="B89" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C89" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E89" s="4">
+        <v>44302</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="B90" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C90" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E90" s="4">
+        <v>44305</v>
       </c>
     </row>
   </sheetData>
@@ -5110,16 +5215,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.125" customWidth="1"/>
-    <col min="2" max="2" width="54.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -5213,7 +5340,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>223</v>
       </c>
@@ -5224,23 +5351,48 @@
         <v>225</v>
       </c>
     </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>222</v>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>245</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="C13" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>248</v>
+      </c>
+      <c r="B14" t="s">
+        <v>249</v>
+      </c>
+      <c r="C14" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>251</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C15" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>254</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -5248,4 +5400,40 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/tu vung.xlsx
+++ b/tu vung.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="326">
   <si>
     <r>
       <t xml:space="preserve">array - </t>
@@ -3180,6 +3180,195 @@
   </si>
   <si>
     <t>Nhà cung ứng</t>
+  </si>
+  <si>
+    <t>声音</t>
+  </si>
+  <si>
+    <t>提示</t>
+  </si>
+  <si>
+    <t>shēngyīn</t>
+  </si>
+  <si>
+    <t> tíshì</t>
+  </si>
+  <si>
+    <t>âm thanh</t>
+  </si>
+  <si>
+    <t>lời nhắc</t>
+  </si>
+  <si>
+    <t>风险</t>
+  </si>
+  <si>
+    <t>fēngxiǎn</t>
+  </si>
+  <si>
+    <t>nguy cơ/ rủi ro</t>
+  </si>
+  <si>
+    <t>贵人难遇</t>
+  </si>
+  <si>
+    <t>guìrén nán yù</t>
+  </si>
+  <si>
+    <t>Quý nhân khó gặp</t>
+  </si>
+  <si>
+    <t>安于现状</t>
+  </si>
+  <si>
+    <t>Ān yú xiànzhuàng</t>
+  </si>
+  <si>
+    <t>Bằng lòng với hiện tại</t>
+  </si>
+  <si>
+    <t>你可以去中国赚钱  回家娶媳妇</t>
+  </si>
+  <si>
+    <t>Nǐ kěyǐ qù zhōngguó zhuànqián huí jiā qǔ xífù</t>
+  </si>
+  <si>
+    <t>bạn có thể sang TQ kiếm tiền rồi về quê cưới vợ</t>
+  </si>
+  <si>
+    <t>好好享受周末</t>
+  </si>
+  <si>
+    <t>Hǎohǎo xiǎngshòu zhōumò</t>
+  </si>
+  <si>
+    <t>Hãy tận hưởng cuối tuần</t>
+  </si>
+  <si>
+    <t>浏览器</t>
+  </si>
+  <si>
+    <t>liúlǎn qì</t>
+  </si>
+  <si>
+    <t>trình duyệt</t>
+  </si>
+  <si>
+    <t>架设</t>
+  </si>
+  <si>
+    <t>Jiàshè</t>
+  </si>
+  <si>
+    <t>Thiết lập</t>
+  </si>
+  <si>
+    <t>你带眼睛看上去很狡猾</t>
+  </si>
+  <si>
+    <t>Nǐ dài yǎnjīng kàn shàngqù hěn jiǎohuá</t>
+  </si>
+  <si>
+    <t>bạn đeo kính nhìn rất lươn lẹo</t>
+  </si>
+  <si>
+    <t>万事大吉</t>
+  </si>
+  <si>
+    <t>Wànshìdàjí</t>
+  </si>
+  <si>
+    <t>Vạn sự đều tốt</t>
+  </si>
+  <si>
+    <t>提醒</t>
+  </si>
+  <si>
+    <t>Tíxǐng</t>
+  </si>
+  <si>
+    <t>nhắc nhở</t>
+  </si>
+  <si>
+    <t>估计</t>
+  </si>
+  <si>
+    <t>Gūjì</t>
+  </si>
+  <si>
+    <t>đoán</t>
+  </si>
+  <si>
+    <t>通宵</t>
+  </si>
+  <si>
+    <t>Tōngxiāo</t>
+  </si>
+  <si>
+    <t>qua đêm (lễ hội)</t>
+  </si>
+  <si>
+    <t>熬夜</t>
+  </si>
+  <si>
+    <t>áoyè</t>
+  </si>
+  <si>
+    <t>thức đêm</t>
+  </si>
+  <si>
+    <t>精钢车</t>
+  </si>
+  <si>
+    <t>Jīng gāng chē</t>
+  </si>
+  <si>
+    <t>xe trolley</t>
+  </si>
+  <si>
+    <t>你果然是无所不知先生</t>
+  </si>
+  <si>
+    <t>Nǐ guǒrán shì wú suǒ bùzhī xiānshēng</t>
+  </si>
+  <si>
+    <t>Bà quả nhiên là người cái gì cũng biết</t>
+  </si>
+  <si>
+    <t>终究</t>
+  </si>
+  <si>
+    <t>Zhōngjiù</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rốt cuộc </t>
+  </si>
+  <si>
+    <t>不一致</t>
+  </si>
+  <si>
+    <t>bùyīzhì</t>
+  </si>
+  <si>
+    <t>không đồng nhất</t>
+  </si>
+  <si>
+    <t>抽象</t>
+  </si>
+  <si>
+    <t>Chōuxiàng</t>
+  </si>
+  <si>
+    <t>trừu tượng</t>
+  </si>
+  <si>
+    <t>灵活性</t>
+  </si>
+  <si>
+    <t>Línghuó xìng</t>
+  </si>
+  <si>
+    <t>tính linh hoạt</t>
   </si>
 </sst>
 </file>
@@ -3738,10 +3927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J90"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -5179,6 +5368,9 @@
       </c>
     </row>
     <row r="89" spans="1:7">
+      <c r="A89" s="25">
+        <v>89</v>
+      </c>
       <c r="B89" s="1" t="s">
         <v>257</v>
       </c>
@@ -5193,6 +5385,9 @@
       </c>
     </row>
     <row r="90" spans="1:7">
+      <c r="A90" s="25">
+        <v>90</v>
+      </c>
       <c r="B90" s="1" t="s">
         <v>260</v>
       </c>
@@ -5204,6 +5399,214 @@
       </c>
       <c r="E90" s="4">
         <v>44305</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="25">
+        <v>91</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C91" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E91" s="4">
+        <v>44319</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="25">
+        <v>92</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C92" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E92" s="4">
+        <v>44319</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="25">
+        <v>93</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C93" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E93" s="4">
+        <v>44319</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="25">
+        <v>94</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C94" s="28" t="s">
+        <v>285</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E94" s="4">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="25">
+        <v>95</v>
+      </c>
+      <c r="B95" t="s">
+        <v>287</v>
+      </c>
+      <c r="C95" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E95" s="4">
+        <v>44401</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="25">
+        <v>96</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E96" s="4">
+        <v>44422</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="25">
+        <v>97</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C97" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E97" s="4">
+        <v>44422</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="25">
+        <v>98</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C98" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E98" s="4">
+        <v>44422</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="25">
+        <v>99</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C99" s="28" t="s">
+        <v>306</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="B100" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C100" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="B101" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C101" s="28" t="s">
+        <v>315</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E101" s="4">
+        <v>44457</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="B102" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C102" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="B103" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C103" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="B104" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C104" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -5237,10 +5640,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5393,6 +5796,83 @@
       </c>
       <c r="C16" s="1" t="s">
         <v>255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>272</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="C17" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>275</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="C18" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>278</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="C19" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>281</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="C20" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>290</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="C21" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>293</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="C22" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>311</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="C23" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>
